--- a/Archetypes.xlsx
+++ b/Archetypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aclark/Documents/GitHub/PBE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35F45FE-8209-C14B-B614-0ACDA8145031}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44B11F9-5D0E-834D-9738-A7750ED0A599}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="2300" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{46DA1012-8638-6643-9FAF-D902DB8E93B9}"/>
+    <workbookView xWindow="10360" yWindow="2300" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{46DA1012-8638-6643-9FAF-D902DB8E93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Batter" sheetId="1" r:id="rId1"/>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
